--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2651492.383006257</v>
+        <v>2649240.303295049</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>131.9577048658572</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>114.2656173771021</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>258.2317318494241</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>22.7931936102651</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316061</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>115.1269998040534</v>
+        <v>134.6311335666466</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.45713216103701</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>186.8460807091483</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.96411613815231</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805175664</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>21.90286287505419</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.85274231757869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060142</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>41.33703994143053</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127826</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>32.57570591154008</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.0280580960842</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135853</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703276</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1340.243929312809</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>954.4556767145643</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,7 +4328,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1722.044275313594</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1722.044275313594</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V4" t="n">
-        <v>1722.044275313594</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565138</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624727</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1343.379050624727</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>957.5907980264824</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>546.6048932368749</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>131.5324430818713</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.94140762926</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.3078929297411</v>
+        <v>669.4690763615329</v>
       </c>
       <c r="C7" t="n">
-        <v>645.3078929297411</v>
+        <v>500.532893433626</v>
       </c>
       <c r="D7" t="n">
-        <v>645.3078929297411</v>
+        <v>350.4162540212902</v>
       </c>
       <c r="E7" t="n">
-        <v>497.394799347348</v>
+        <v>202.5031604388971</v>
       </c>
       <c r="F7" t="n">
-        <v>350.5048518494376</v>
+        <v>202.5031604388971</v>
       </c>
       <c r="G7" t="n">
-        <v>182.8020152241566</v>
+        <v>202.5031604388971</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297411</v>
+        <v>851.1175411917726</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
@@ -4881,10 +4881,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4999,13 +4999,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>331.5406302391191</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5051,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>198.0274703142544</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1166.195182806535</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,16 +5501,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
@@ -5519,43 +5519,43 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797747</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6464,22 +6464,22 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400717</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400717</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
@@ -6686,46 +6686,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890283</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.11872044489</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684177</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703119</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C34" t="n">
-        <v>526.565882642405</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,13 +6874,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487568</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6917,61 +6917,61 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192565</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797191</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637308</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890283</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.11872044489</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684177</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7190,34 +7190,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438167</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7339,7 +7339,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,13 +7348,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487568</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7403,22 +7403,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438167</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770328</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>634.3345878491259</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.70136564882</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750803</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072725</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438167</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121652</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121652</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-6.97187805258644e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664557</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465679</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>143.6212754172147</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.9792378643586</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>88.18825743108268</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814934</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>107.2784330767818</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>193.1339494774971</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5874149221281186</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850953</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194129</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
@@ -26320,40 +26320,40 @@
         <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520052</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12386.92018181807</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="I4" t="n">
         <v>12386.92018181811</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12386.92018181811</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26445,13 +26445,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26500,10 +26500,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-871419.2253507286</v>
+        <v>-871419.2253507288</v>
       </c>
       <c r="C6" t="n">
+        <v>457325.520376864</v>
+      </c>
+      <c r="D6" t="n">
         <v>457325.5203768638</v>
       </c>
-      <c r="D6" t="n">
-        <v>457325.520376864</v>
-      </c>
       <c r="E6" t="n">
-        <v>206795.3679389246</v>
+        <v>206760.6300134886</v>
       </c>
       <c r="F6" t="n">
-        <v>532207.8297462801</v>
+        <v>532173.0918208441</v>
       </c>
       <c r="G6" t="n">
-        <v>532207.8297462796</v>
+        <v>532173.091820844</v>
       </c>
       <c r="H6" t="n">
-        <v>532207.8297462799</v>
+        <v>532173.0918208443</v>
       </c>
       <c r="I6" t="n">
-        <v>532207.8297462799</v>
+        <v>532173.0918208444</v>
       </c>
       <c r="J6" t="n">
-        <v>314676.6273490026</v>
+        <v>314641.8894235667</v>
       </c>
       <c r="K6" t="n">
-        <v>532207.82974628</v>
+        <v>532173.0918208444</v>
       </c>
       <c r="L6" t="n">
-        <v>532207.8297462796</v>
+        <v>532173.0918208446</v>
       </c>
       <c r="M6" t="n">
-        <v>447152.8018107677</v>
+        <v>447118.0638853326</v>
       </c>
       <c r="N6" t="n">
-        <v>532207.82974628</v>
+        <v>532173.0918208444</v>
       </c>
       <c r="O6" t="n">
-        <v>532207.8297462801</v>
+        <v>532173.0918208442</v>
       </c>
       <c r="P6" t="n">
-        <v>532207.8297462801</v>
+        <v>532173.0918208442</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>274.9183408758542</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4732379112244</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>105.2833318990671</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>27.98010635618874</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>271.8145707770553</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244475</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>29.62801511026736</v>
+        <v>10.12388134767423</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.2767095024436</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>17.0718894304718</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.6205372139425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-3.510418468994654e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.523608934806495e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>519.7862086120936</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32257,7 +32257,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>491.1355220041054</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>549.9198891312099</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,31 +32549,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>467.1465236515247</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,31 +32786,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,34 +33020,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760386</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
         <v>867.8464071162563</v>
@@ -33202,7 +33202,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043726</v>
@@ -33257,13 +33257,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>567.7870775946146</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,34 +33497,34 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,37 +33731,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,25 +33980,25 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>364.3208035245826</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34235,7 +34235,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175656</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>388.4444965287602</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060407</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,7 +35887,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M17" t="n">
         <v>735.300110790295</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>407.3236446867654</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,31 +36197,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>328.5921438716505</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.8925903961645</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>425.1908331501702</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>224.3390294385611</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
